--- a/trunk/Lab4/lab4.xlsx
+++ b/trunk/Lab4/lab4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Q2</t>
   </si>
@@ -97,6 +97,33 @@
   </si>
   <si>
     <t>Ree</t>
+  </si>
+  <si>
+    <t>r(pi)</t>
+  </si>
+  <si>
+    <t>Parte 2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>"-VCC"</t>
+  </si>
+  <si>
+    <t>Vsin</t>
+  </si>
+  <si>
+    <t>1kHz</t>
+  </si>
+  <si>
+    <t>Pl</t>
+  </si>
+  <si>
+    <t>Teorico</t>
   </si>
 </sst>
 </file>
@@ -104,8 +131,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -180,11 +207,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,16 +523,23 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="2:13">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -519,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -537,8 +571,14 @@
         <f>1000</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -554,8 +594,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -566,8 +612,14 @@
         <f>0.001+941/1000000</f>
         <v>1.941E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -575,8 +627,17 @@
         <f>E6/2</f>
         <v>9.7050000000000001E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -586,8 +647,27 @@
       <c r="D8">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <f>J7*J7/(2*J4)</f>
+        <v>2.5759917568263782</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <f>9.04*9.04/(2*J4)</f>
+        <v>2.1051416795466249</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -599,7 +679,7 @@
         <v>5151.9835136527563</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -607,7 +687,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -623,7 +703,7 @@
         <v>199.99999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -639,7 +719,7 @@
         <v>-0.51387461459403905</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -654,7 +734,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -664,29 +744,29 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>(D8-C7*D10)-(D13*D10*E4/2)</f>
         <v>4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>D13*D10*E4/2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>(D8-C7*D10)+(D13*D10*E4/2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -695,7 +775,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -704,19 +784,47 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <f>255.9/D13</f>
+        <v>6591.9629057187021</v>
+      </c>
+      <c r="D21">
+        <f>255.9/0.0372</f>
+        <v>6879.032258064517</v>
+      </c>
+      <c r="E21">
+        <f>0.643/6.17</f>
+        <v>0.10421393841166937</v>
+      </c>
+      <c r="F21">
+        <f>E21*1000000</f>
+        <v>104213.93841166937</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="C22">
+        <f>C7/D13</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:6">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Lab4/lab4.xlsx
+++ b/trunk/Lab4/lab4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Q2</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Teorico</t>
+  </si>
+  <si>
+    <t>PSS</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,6 +580,9 @@
       <c r="J4">
         <v>19.41</v>
       </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
@@ -600,6 +606,9 @@
       <c r="J5">
         <v>10</v>
       </c>
+      <c r="L5">
+        <v>0.40799999999999997</v>
+      </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
@@ -685,6 +694,13 @@
       </c>
       <c r="C11" s="3">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <f>2*J5*J7/(PI()*J4)</f>
+        <v>3.27985457170315</v>
       </c>
     </row>
     <row r="12" spans="2:13">

--- a/trunk/Lab4/lab4.xlsx
+++ b/trunk/Lab4/lab4.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,6 +675,9 @@
         <f>9.04*9.04/(2*J4)</f>
         <v>2.1051416795466249</v>
       </c>
+      <c r="L9">
+        <v>2.2799999999999998</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
@@ -702,6 +705,17 @@
         <f>2*J5*J7/(PI()*J4)</f>
         <v>3.27985457170315</v>
       </c>
+      <c r="K11">
+        <f>J11/2</f>
+        <v>1.639927285851575</v>
+      </c>
+      <c r="L11">
+        <v>1.54</v>
+      </c>
+      <c r="M11">
+        <f>L9/(L11*2)</f>
+        <v>0.74025974025974017</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
@@ -717,6 +731,10 @@
       <c r="F12">
         <f>D10/C12</f>
         <v>199.99999999999997</v>
+      </c>
+      <c r="J12">
+        <f>J8/J11</f>
+        <v>0.78539816339744828</v>
       </c>
     </row>
     <row r="13" spans="2:13">
